--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1277903.016973974</v>
+        <v>-1280762.849209243</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116.8405921356977</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>116.840592135698</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>89.50222024065675</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>164.0442503305536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>33.85494164980879</v>
+        <v>306.6391762031534</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>309.9780130577771</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>34.66253762724386</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>46.35629725347551</v>
+        <v>97.35224439075478</v>
       </c>
       <c r="I6" t="n">
-        <v>46.46465121295525</v>
+        <v>46.46465121295537</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>47.03311121604541</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67.61392489878448</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443857</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.53060049107307</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.3793368328949</v>
       </c>
       <c r="D8" t="n">
-        <v>20.1277526843132</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>78.16360657708285</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.64923762510195</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>165.3461923380937</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>18.15430933923912</v>
@@ -1336,7 +1336,7 @@
         <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>7.256470454727491</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>179.2643050501599</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>177.0850116794029</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.42659968729191</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>112.0357928423</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>19.72264368952156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>55.4097602225693</v>
       </c>
       <c r="W25" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195705822</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265257</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.4426321268588</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="C2" t="n">
-        <v>322.4426321268588</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="D2" t="n">
-        <v>133.022847110374</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433436</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268588</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268588</v>
+        <v>322.4426321268593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.6960655939093</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="C3" t="n">
-        <v>485.2430363127824</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="D3" t="n">
-        <v>336.3086266515311</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="E3" t="n">
-        <v>177.0711716460756</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>659.6960655939093</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>659.6960655939093</v>
+        <v>511.2365446662736</v>
       </c>
       <c r="V3" t="n">
-        <v>659.6960655939093</v>
+        <v>321.8167596497887</v>
       </c>
       <c r="W3" t="n">
-        <v>659.6960655939093</v>
+        <v>321.8167596497887</v>
       </c>
       <c r="X3" t="n">
-        <v>659.6960655939093</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="Y3" t="n">
-        <v>659.6960655939093</v>
+        <v>132.3969746333036</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.6526665984861</v>
+        <v>1029.366561802618</v>
       </c>
       <c r="C5" t="n">
-        <v>770.6526665984861</v>
+        <v>660.4040448622061</v>
       </c>
       <c r="D5" t="n">
-        <v>770.6526665984861</v>
+        <v>660.4040448622061</v>
       </c>
       <c r="E5" t="n">
-        <v>384.8644140002419</v>
+        <v>660.4040448622061</v>
       </c>
       <c r="F5" t="n">
-        <v>377.9189132510384</v>
+        <v>653.4585441130026</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7220024936558</v>
+        <v>343.7220024936557</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="J5" t="n">
         <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235839</v>
+        <v>238.204646223583</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190632</v>
+        <v>454.7669823190612</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643071</v>
+        <v>727.4037457643039</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453889</v>
+        <v>1009.065865453884</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.69615683193</v>
+        <v>1261.696156831925</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855773</v>
+        <v>1442.809264855767</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744554</v>
+        <v>1530.644919744548</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744554</v>
+        <v>1495.632255474604</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744554</v>
+        <v>1495.632255474604</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744554</v>
+        <v>1283.01831672203</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744554</v>
+        <v>1029.366561802618</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744554</v>
+        <v>1029.366561802618</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.644919744554</v>
+        <v>1029.366561802618</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.179161483475</v>
+        <v>1029.366561802618</v>
       </c>
       <c r="Y5" t="n">
-        <v>770.6526665984861</v>
+        <v>1029.366561802618</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>584.9330907348424</v>
+        <v>942.2161614278365</v>
       </c>
       <c r="C6" t="n">
-        <v>410.4800614537154</v>
+        <v>767.7631321467095</v>
       </c>
       <c r="D6" t="n">
-        <v>261.5456517924641</v>
+        <v>618.8287224854582</v>
       </c>
       <c r="E6" t="n">
-        <v>261.5456517924641</v>
+        <v>459.5912674800027</v>
       </c>
       <c r="F6" t="n">
-        <v>261.5456517924641</v>
+        <v>313.0567095068876</v>
       </c>
       <c r="G6" t="n">
-        <v>124.3714321993666</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908831</v>
+        <v>77.5468895190883</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275268</v>
+        <v>49.18216652275224</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477042</v>
+        <v>159.0748281477032</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543706</v>
+        <v>353.1616144543689</v>
       </c>
       <c r="M6" t="n">
-        <v>599.008607764222</v>
+        <v>599.0086077642195</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621726</v>
+        <v>865.7710843621692</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970543</v>
+        <v>1087.586838970539</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422847</v>
+        <v>1246.280471422842</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680484</v>
+        <v>1302.443765680478</v>
       </c>
       <c r="R6" t="n">
-        <v>1302.443765680484</v>
+        <v>1302.443765680478</v>
       </c>
       <c r="S6" t="n">
-        <v>1302.443765680484</v>
+        <v>1157.939691595425</v>
       </c>
       <c r="T6" t="n">
-        <v>1302.443765680484</v>
+        <v>1157.939691595425</v>
       </c>
       <c r="U6" t="n">
-        <v>1074.322555694787</v>
+        <v>1157.939691595425</v>
       </c>
       <c r="V6" t="n">
-        <v>839.170447463044</v>
+        <v>1110.431498447904</v>
       </c>
       <c r="W6" t="n">
-        <v>584.9330907348424</v>
+        <v>1110.431498447904</v>
       </c>
       <c r="X6" t="n">
-        <v>584.9330907348424</v>
+        <v>1110.431498447904</v>
       </c>
       <c r="Y6" t="n">
-        <v>584.9330907348424</v>
+        <v>1110.431498447904</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="C7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="D7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="E7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="F7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="G7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489109</v>
+        <v>30.61289839489095</v>
       </c>
       <c r="K7" t="n">
-        <v>51.4905488171322</v>
+        <v>51.49054881713172</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363478</v>
+        <v>108.1125511363469</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055975</v>
+        <v>171.0707966055961</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221342</v>
+        <v>240.3895616221324</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645231</v>
+        <v>284.1035717645209</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354671</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354671</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354671</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="S7" t="n">
-        <v>98.90979223204712</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="T7" t="n">
-        <v>98.90979223204712</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="U7" t="n">
-        <v>98.90979223204712</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="V7" t="n">
-        <v>98.90979223204712</v>
+        <v>302.4464881354646</v>
       </c>
       <c r="W7" t="n">
-        <v>98.90979223204712</v>
+        <v>251.4054775384211</v>
       </c>
       <c r="X7" t="n">
-        <v>98.90979223204712</v>
+        <v>251.4054775384211</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.90979223204712</v>
+        <v>30.61289839489095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.859413381708</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.859413381708</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="D8" t="n">
-        <v>1642.52835006422</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763686</v>
+        <v>538.3533797913352</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
@@ -4802,13 +4802,13 @@
         <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578732</v>
@@ -4817,7 +4817,7 @@
         <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
         <v>2021.630958172451</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642788</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642788</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642788</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381708</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.859413381708</v>
+        <v>1171.944675321241</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>534.741748045641</v>
+        <v>525.9940904859269</v>
       </c>
       <c r="C9" t="n">
-        <v>534.741748045641</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D9" t="n">
-        <v>385.8073383843897</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E9" t="n">
-        <v>226.5698833789342</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809315</v>
@@ -4905,28 +4905,28 @@
         <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.527977446644</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="U9" t="n">
-        <v>1311.426387579908</v>
+        <v>1599.210691436426</v>
       </c>
       <c r="V9" t="n">
-        <v>1076.274279348165</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0369226199637</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X9" t="n">
-        <v>614.1854224144308</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.1854224144308</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="C10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="D10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="E10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="F10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="G10" t="n">
-        <v>61.70688273934479</v>
+        <v>322.0038290103839</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934479</v>
+        <v>171.9636155141766</v>
       </c>
       <c r="I10" t="n">
         <v>61.70688273934479</v>
@@ -4984,28 +4984,28 @@
         <v>497.4664265514538</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514538</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514538</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514538</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514538</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7819383455669</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="W10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="X10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.70688273934479</v>
+        <v>490.1366584153654</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753349</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>430.7826650753349</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>430.7826650753349</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504995</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381638</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557706</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2359.995517520015</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.394052542956</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,13 +5750,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,28 +5987,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
         <v>779.6143379232838</v>
@@ -6136,7 +6136,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1699.462102832032</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>261.8464821474262</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>120.1346509896242</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580114</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,7 +7433,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>265.0897779365641</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>189.1680279651432</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>238.2978350464292</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>40.3204386478854</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.8202214113359</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.48834544996886</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>161.303642312123</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>61.35027805667498</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>196.7278831012587</v>
       </c>
       <c r="W25" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>55.2110282563297</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.583178160801231e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048897</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
@@ -26332,19 +26332,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996501</v>
+        <v>216004.046899648</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960631</v>
+        <v>167084.511296065</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742641</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838271</v>
+        <v>50221.67010838216</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064617</v>
+        <v>59784.02116064663</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515977</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969923</v>
+        <v>196327.1528969922</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468117</v>
+        <v>221112.0537468122</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888973</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496087</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="N4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496078</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790104</v>
+        <v>72511.97598790091</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-692342.9290245615</v>
+        <v>-692703.0120402792</v>
       </c>
       <c r="C6" t="n">
-        <v>-324893.6784148992</v>
+        <v>-324893.6784148975</v>
       </c>
       <c r="D6" t="n">
-        <v>-241752.1850213689</v>
+        <v>-241752.1850213709</v>
       </c>
       <c r="E6" t="n">
-        <v>-535784.4485097873</v>
+        <v>-535819.1864352229</v>
       </c>
       <c r="F6" t="n">
-        <v>65658.75906447684</v>
+        <v>65624.02113904124</v>
       </c>
       <c r="G6" t="n">
-        <v>65658.75906447723</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="H6" t="n">
-        <v>65658.75906447685</v>
+        <v>65624.02113904129</v>
       </c>
       <c r="I6" t="n">
-        <v>65658.75906447691</v>
+        <v>65624.02113904114</v>
       </c>
       <c r="J6" t="n">
-        <v>16593.81433593227</v>
+        <v>16559.07641049652</v>
       </c>
       <c r="K6" t="n">
-        <v>15437.08895609425</v>
+        <v>15402.35103065903</v>
       </c>
       <c r="L6" t="n">
-        <v>-1031.294100058789</v>
+        <v>-1031.294100059255</v>
       </c>
       <c r="M6" t="n">
-        <v>-98393.65349101022</v>
+        <v>-98393.65349101032</v>
       </c>
       <c r="N6" t="n">
-        <v>58752.72706058735</v>
+        <v>58752.72706058738</v>
       </c>
       <c r="O6" t="n">
-        <v>58752.72706058745</v>
+        <v>58752.72706058741</v>
       </c>
       <c r="P6" t="n">
-        <v>58752.72706058741</v>
+        <v>58752.72706058738</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836615</v>
+        <v>716.4483122836599</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376851</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361386</v>
+        <v>382.6612299361369</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707568</v>
+        <v>167.9783713707551</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540237</v>
+        <v>137.2623522540252</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039888</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698186</v>
+        <v>195.1356427698168</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900257</v>
+        <v>159.4537267900274</v>
       </c>
       <c r="E4" t="n">
         <v>630.593331373484</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698188</v>
+        <v>195.1356427698166</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900257</v>
+        <v>159.4537267900274</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698186</v>
+        <v>195.1356427698168</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900257</v>
+        <v>159.4537267900274</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>217.7080177765682</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>296.25724109436</v>
       </c>
       <c r="H2" t="n">
-        <v>78.59599105979311</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9073775513445</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>61.81951807953729</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441932</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>378.5676016450905</v>
+        <v>105.7833670917458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476424</v>
+        <v>99.43720189476448</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724344</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>143.3876437926216</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1152373702176</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719914961</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>50.99594713727922</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.9998595423836</v>
+        <v>49.99985954238382</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>185.7674759333799</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,13 +27789,13 @@
         <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>83.12658450351704</v>
+        <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037915</v>
+        <v>35.65413415037935</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461297</v>
+        <v>43.32130647461319</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>119.2023528106944</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.5013289443858</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>235.9923978455179</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.8935549381126</v>
       </c>
       <c r="D8" t="n">
-        <v>334.5552889363698</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.88394602476539</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470352</v>
@@ -27950,7 +27950,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60.4743816299748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>100.816380810911</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
@@ -28068,10 +28068,10 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>107.2586932864311</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235823</v>
+        <v>2.880194220235817</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799013</v>
+        <v>29.49678905799006</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756417</v>
+        <v>111.0386876756414</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997404</v>
+        <v>244.4528841997399</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423228</v>
+        <v>366.371505542322</v>
       </c>
       <c r="L5" t="n">
-        <v>454.516249409865</v>
+        <v>454.516249409864</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739838</v>
+        <v>505.7369033739827</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022289</v>
+        <v>513.9202552022277</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247589</v>
+        <v>485.2803239247578</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126869</v>
+        <v>414.175529112686</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004914</v>
+        <v>311.0285736004907</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868887</v>
+        <v>180.9230001868883</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362388</v>
+        <v>65.63242579362374</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908232</v>
+        <v>12.60805019908229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188658</v>
+        <v>0.2304155376188653</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044102</v>
+        <v>1.541039766044099</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574172</v>
+        <v>14.88319984574169</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704475</v>
+        <v>53.05772878704463</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594562</v>
+        <v>145.5944631594559</v>
       </c>
       <c r="K6" t="n">
-        <v>248.844127484411</v>
+        <v>248.8441274844104</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754969</v>
+        <v>334.6016386754961</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945954</v>
+        <v>390.4643301945946</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519702</v>
+        <v>400.7987591519694</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306772</v>
+        <v>366.6525622306764</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510006</v>
+        <v>294.2710058509999</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462612</v>
+        <v>196.7123743462608</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158035</v>
+        <v>95.67964442158014</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963495</v>
+        <v>28.62413775963488</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572497</v>
+        <v>6.211471688572483</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344804</v>
+        <v>0.1013841951344802</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970537</v>
+        <v>1.291955972970534</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513805</v>
+        <v>11.48666310513803</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351398</v>
+        <v>38.85263962351389</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901696</v>
+        <v>91.34128728901676</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505769</v>
+        <v>150.1017939505766</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178197</v>
+        <v>192.0786180178193</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902815</v>
+        <v>202.5199712902811</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273915</v>
+        <v>197.7044990273911</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522356</v>
+        <v>182.6121042522352</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036365</v>
+        <v>156.2562024036362</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548329</v>
+        <v>108.1836951548326</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647522</v>
+        <v>58.09103856647509</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258653</v>
+        <v>22.51526909258648</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874111</v>
+        <v>5.520175520874099</v>
       </c>
       <c r="U7" t="n">
-        <v>0.070470325798393</v>
+        <v>0.07047032579839285</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>688.8020111197783</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832331</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197792</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305411</v>
+        <v>63.40697967305357</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973423</v>
+        <v>146.2816544973415</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398778</v>
+        <v>218.7498344398768</v>
       </c>
       <c r="M5" t="n">
-        <v>275.390670146711</v>
+        <v>275.3906701467099</v>
       </c>
       <c r="N5" t="n">
-        <v>284.507191605638</v>
+        <v>284.5071916056368</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030721</v>
+        <v>255.1821125030711</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574174</v>
+        <v>182.9425333574165</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604194</v>
+        <v>88.72288372604126</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278949</v>
+        <v>18.75683649278918</v>
       </c>
       <c r="K6" t="n">
-        <v>111.002688510052</v>
+        <v>111.0026885100515</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956227</v>
+        <v>196.047258895622</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725771</v>
+        <v>248.3302962725763</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686369</v>
+        <v>269.457047068636</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862328</v>
+        <v>224.0563177862319</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366703</v>
+        <v>160.2965984366696</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023967</v>
+        <v>56.73060026023924</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004152</v>
+        <v>21.08853578004118</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658139</v>
+        <v>57.19394173658097</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267646</v>
+        <v>63.59418734267601</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215829</v>
+        <v>70.01895456215786</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039282</v>
+        <v>44.15556580039242</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448889</v>
+        <v>18.52819835448855</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>546.2057666753338</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998998</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753348</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
